--- a/tests/fixtures/orderforms/1508.15.fastq.xlsx
+++ b/tests/fixtures/orderforms/1508.15.fastq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrikgrenfeldt/Documents/src/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADED321-6D67-774A-81C1-061515286A4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7E1F015-F86A-6E42-A7D5-990957F59F97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28280" yWindow="7240" windowWidth="19460" windowHeight="21400" tabRatio="262" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1600" yWindow="460" windowWidth="34140" windowHeight="20920" tabRatio="262" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="information" sheetId="5" r:id="rId1"/>
@@ -1335,9 +1335,6 @@
       <t xml:space="preserve">the sample id of the father
 </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1508:14 Orderform </t>
   </si>
   <si>
     <r>
@@ -1685,9 +1682,6 @@
     <t>CSP</t>
   </si>
   <si>
-    <t>Emilia Ottosson Laakso</t>
-  </si>
-  <si>
     <t>Valtteri Wirta</t>
   </si>
   <si>
@@ -1726,79 +1720,85 @@
     <t>muscle</t>
   </si>
   <si>
+    <t xml:space="preserve">1508:15 Orderform </t>
+  </si>
+  <si>
+    <t>Anna Gellerbring</t>
+  </si>
+  <si>
+    <t>whole-genome-1</t>
+  </si>
+  <si>
+    <t>whole-genome</t>
+  </si>
+  <si>
+    <t>plate</t>
+  </si>
+  <si>
+    <t>whole-genome-2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>sample comment</t>
+  </si>
+  <si>
+    <t>whole-genome-3</t>
+  </si>
+  <si>
+    <t>whole-genome-4</t>
+  </si>
+  <si>
+    <t>whole-genome-5</t>
+  </si>
+  <si>
+    <t>whole-genome-6</t>
+  </si>
+  <si>
+    <t>whole-genome-7</t>
+  </si>
+  <si>
+    <t>whole-genome-8</t>
+  </si>
+  <si>
+    <t>whole-genome-9</t>
+  </si>
+  <si>
+    <t>whole-genome-10</t>
+  </si>
+  <si>
+    <t>whole-exome-1</t>
+  </si>
+  <si>
+    <t>whole-exome</t>
+  </si>
+  <si>
+    <t>whole-exome-2</t>
+  </si>
+  <si>
+    <t>whole-exome-3</t>
+  </si>
+  <si>
+    <t>cancer-capture-panels-1</t>
+  </si>
+  <si>
+    <t>cancer-capture-panels</t>
+  </si>
+  <si>
+    <t>cancer-capture-panels-2</t>
+  </si>
+  <si>
+    <t>cancer-capture-panels-3</t>
+  </si>
+  <si>
+    <t>rna-1</t>
+  </si>
+  <si>
     <t>rna</t>
   </si>
   <si>
-    <t>plate</t>
-  </si>
-  <si>
-    <t>whole-genome</t>
-  </si>
-  <si>
-    <t>whole-exome</t>
-  </si>
-  <si>
-    <t>cancer-capture-panels</t>
-  </si>
-  <si>
-    <t>whole-genome-1</t>
-  </si>
-  <si>
-    <t>whole-genome-2</t>
-  </si>
-  <si>
-    <t>whole-genome-3</t>
-  </si>
-  <si>
-    <t>whole-genome-4</t>
-  </si>
-  <si>
-    <t>whole-genome-5</t>
-  </si>
-  <si>
-    <t>whole-genome-6</t>
-  </si>
-  <si>
-    <t>whole-genome-7</t>
-  </si>
-  <si>
-    <t>whole-genome-8</t>
-  </si>
-  <si>
-    <t>whole-genome-9</t>
-  </si>
-  <si>
-    <t>whole-genome-10</t>
-  </si>
-  <si>
-    <t>whole-exome-1</t>
-  </si>
-  <si>
-    <t>whole-exome-2</t>
-  </si>
-  <si>
-    <t>whole-exome-3</t>
-  </si>
-  <si>
-    <t>cancer-capture-panels-1</t>
-  </si>
-  <si>
-    <t>cancer-capture-panels-2</t>
-  </si>
-  <si>
-    <t>cancer-capture-panels-3</t>
-  </si>
-  <si>
-    <t>rna-1</t>
-  </si>
-  <si>
     <t>rna-2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>sample comment</t>
   </si>
 </sst>
 </file>
@@ -3682,7 +3682,7 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2310553</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>55034</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4074,7 +4074,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -4118,7 +4118,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -4142,8 +4142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A7" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection sqref="A1:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -4160,7 +4160,7 @@
         <v>22</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="2"/>
@@ -4178,7 +4178,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>24</v>
@@ -4193,7 +4193,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>26</v>
@@ -4204,7 +4204,6 @@
     </row>
     <row r="5" spans="1:5" hidden="1"/>
     <row r="6" spans="1:5" hidden="1"/>
-    <row r="7" spans="1:5" hidden="1"/>
     <row r="14" spans="1:5" ht="19">
       <c r="A14" s="41" t="s">
         <v>250</v>
@@ -4217,27 +4216,27 @@
     </row>
     <row r="16" spans="1:5" ht="14">
       <c r="A16" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="14">
       <c r="A17" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="14">
       <c r="A18" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="14">
       <c r="A19" s="16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="14">
       <c r="A20" s="16" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="16">
@@ -4257,12 +4256,12 @@
     </row>
     <row r="26" spans="1:1" ht="28">
       <c r="A26" s="36" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="98">
       <c r="A27" s="36" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="36" customHeight="1">
@@ -4277,7 +4276,7 @@
     </row>
     <row r="30" spans="1:1" ht="27" customHeight="1">
       <c r="A30" s="36" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="28">
@@ -4292,7 +4291,7 @@
     </row>
     <row r="33" spans="1:5" ht="52" customHeight="1">
       <c r="A33" s="35" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C33" s="16"/>
       <c r="E33" s="16"/>
@@ -4371,32 +4370,32 @@
     </row>
     <row r="51" spans="1:1" ht="28">
       <c r="A51" s="35" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="14">
       <c r="A52" s="35" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="14">
       <c r="A56" s="35" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="28" customHeight="1">
       <c r="A57" s="37" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="28" customHeight="1">
       <c r="A58" s="37" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -4457,7 +4456,7 @@
       <c r="A80" s="16"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="YC2FrqvxuxCdgPs2rz0v2G7WVpDLnlfsPKGuUC3HUIoAOtq1+GH3+sQFpGgKkaMWpQuALORguIp/pjneAcENiQ==" saltValue="xSK47VJfeSLePxG37PQCnw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <hyperlinks>
     <hyperlink ref="A14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
@@ -4479,8 +4478,8 @@
   </sheetPr>
   <dimension ref="A1:AC428"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I9" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:AC32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -4488,7 +4487,7 @@
     <col min="1" max="1" width="18" style="71" customWidth="1"/>
     <col min="2" max="2" width="8" style="165" customWidth="1"/>
     <col min="3" max="3" width="7.83203125" style="166" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" style="165" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="165" customWidth="1"/>
     <col min="5" max="5" width="11.83203125" style="167" customWidth="1"/>
     <col min="6" max="6" width="6.1640625" style="71" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" style="71"/>
@@ -4776,7 +4775,7 @@
       <c r="N9" s="181"/>
       <c r="O9" s="102"/>
       <c r="P9" s="183" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="Q9" s="184"/>
       <c r="R9" s="184"/>
@@ -4788,7 +4787,7 @@
       <c r="V9" s="190"/>
       <c r="W9" s="104"/>
       <c r="X9" s="186" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="Y9" s="187"/>
       <c r="Z9" s="188"/>
@@ -4894,13 +4893,13 @@
       </c>
       <c r="W11" s="122"/>
       <c r="X11" s="121" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y11" s="121" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Z11" s="121" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AA11" s="123"/>
       <c r="AB11" s="109" t="s">
@@ -4999,20 +4998,20 @@
       </c>
       <c r="T13" s="145"/>
       <c r="U13" s="141" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="V13" s="147" t="s">
         <v>307</v>
       </c>
       <c r="W13" s="148"/>
       <c r="X13" s="146" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Y13" s="149" t="s">
+        <v>384</v>
+      </c>
+      <c r="Z13" s="149" t="s">
         <v>385</v>
-      </c>
-      <c r="Z13" s="149" t="s">
-        <v>386</v>
       </c>
       <c r="AA13" s="150"/>
       <c r="AB13" s="117" t="s">
@@ -5057,19 +5056,19 @@
     </row>
     <row r="15" spans="1:29" s="133" customFormat="1" ht="25" customHeight="1">
       <c r="A15" s="58" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B15" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="57" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>289</v>
       </c>
       <c r="E15" s="58" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F15" s="57" t="s">
         <v>15</v>
@@ -5091,7 +5090,7 @@
       </c>
       <c r="L15" s="156"/>
       <c r="M15" s="61" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N15" s="60" t="s">
         <v>27</v>
@@ -5114,19 +5113,19 @@
     </row>
     <row r="16" spans="1:29" s="133" customFormat="1" ht="25" customHeight="1">
       <c r="A16" s="58" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B16" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="57" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>290</v>
       </c>
       <c r="E16" s="58" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F16" s="57" t="s">
         <v>16</v>
@@ -5163,27 +5162,27 @@
       <c r="Z16" s="66"/>
       <c r="AA16" s="159"/>
       <c r="AB16" s="61" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="AC16" s="61" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:29" s="133" customFormat="1" ht="25" customHeight="1">
       <c r="A17" s="58" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B17" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>291</v>
       </c>
       <c r="E17" s="58" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F17" s="57" t="s">
         <v>77</v>
@@ -5224,19 +5223,19 @@
     </row>
     <row r="18" spans="1:29" s="133" customFormat="1" ht="25" customHeight="1">
       <c r="A18" s="58" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B18" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="57" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>292</v>
       </c>
       <c r="E18" s="58" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F18" s="57" t="s">
         <v>77</v>
@@ -5277,19 +5276,19 @@
     </row>
     <row r="19" spans="1:29" s="133" customFormat="1" ht="25" customHeight="1">
       <c r="A19" s="58" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B19" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="57" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D19" s="30" t="s">
         <v>293</v>
       </c>
       <c r="E19" s="58" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F19" s="57" t="s">
         <v>77</v>
@@ -5298,10 +5297,10 @@
         <v>94</v>
       </c>
       <c r="H19" s="42" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I19" s="176" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J19" s="56" t="s">
         <v>94</v>
@@ -5330,19 +5329,19 @@
     </row>
     <row r="20" spans="1:29" s="133" customFormat="1" ht="25" customHeight="1">
       <c r="A20" s="58" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B20" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="57" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>294</v>
       </c>
       <c r="E20" s="58" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F20" s="57" t="s">
         <v>77</v>
@@ -5383,19 +5382,19 @@
     </row>
     <row r="21" spans="1:29" s="133" customFormat="1" ht="25" customHeight="1">
       <c r="A21" s="58" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B21" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="57" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>295</v>
       </c>
       <c r="E21" s="58" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F21" s="57" t="s">
         <v>77</v>
@@ -5436,19 +5435,19 @@
     </row>
     <row r="22" spans="1:29" s="133" customFormat="1" ht="25" customHeight="1">
       <c r="A22" s="58" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B22" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="57" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>296</v>
       </c>
       <c r="E22" s="58" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F22" s="57" t="s">
         <v>77</v>
@@ -5489,19 +5488,19 @@
     </row>
     <row r="23" spans="1:29" ht="25" customHeight="1">
       <c r="A23" s="58" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B23" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="57" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>297</v>
       </c>
       <c r="E23" s="58" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F23" s="57" t="s">
         <v>77</v>
@@ -5542,19 +5541,19 @@
     </row>
     <row r="24" spans="1:29" ht="25" customHeight="1">
       <c r="A24" s="58" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B24" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="57" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>298</v>
       </c>
       <c r="E24" s="58" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F24" s="57" t="s">
         <v>77</v>
@@ -5563,10 +5562,10 @@
         <v>94</v>
       </c>
       <c r="H24" s="176" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I24" s="176" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J24" s="56" t="s">
         <v>94</v>
@@ -5595,19 +5594,19 @@
     </row>
     <row r="25" spans="1:29" ht="25" customHeight="1">
       <c r="A25" s="58" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B25" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="57" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>285</v>
       </c>
       <c r="E25" s="58" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="F25" s="57" t="s">
         <v>77</v>
@@ -5616,7 +5615,7 @@
         <v>94</v>
       </c>
       <c r="H25" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I25" s="21" t="s">
         <v>18</v>
@@ -5654,13 +5653,13 @@
         <v>37</v>
       </c>
       <c r="C26" s="57" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E26" s="58" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="F26" s="57" t="s">
         <v>77</v>
@@ -5707,13 +5706,13 @@
         <v>37</v>
       </c>
       <c r="C27" s="57" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D27" s="53" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E27" s="58" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="F27" s="57" t="s">
         <v>77</v>
@@ -5722,7 +5721,7 @@
         <v>94</v>
       </c>
       <c r="H27" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I27" s="21" t="s">
         <v>19</v>
@@ -5760,13 +5759,13 @@
         <v>37</v>
       </c>
       <c r="C28" s="57" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E28" s="58" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="F28" s="57" t="s">
         <v>77</v>
@@ -5775,7 +5774,7 @@
         <v>94</v>
       </c>
       <c r="H28" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I28" s="31" t="s">
         <v>103</v>
@@ -5807,19 +5806,19 @@
     </row>
     <row r="29" spans="1:29" s="160" customFormat="1" ht="25" customHeight="1">
       <c r="A29" s="58" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B29" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="57" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D29" s="30" t="s">
         <v>251</v>
       </c>
       <c r="E29" s="58" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="F29" s="57" t="s">
         <v>77</v>
@@ -5828,10 +5827,10 @@
         <v>94</v>
       </c>
       <c r="H29" s="176" t="s">
+        <v>382</v>
+      </c>
+      <c r="I29" s="176" t="s">
         <v>383</v>
-      </c>
-      <c r="I29" s="176" t="s">
-        <v>384</v>
       </c>
       <c r="J29" s="56" t="s">
         <v>94</v>
@@ -5860,19 +5859,19 @@
     </row>
     <row r="30" spans="1:29" s="160" customFormat="1" ht="25" customHeight="1">
       <c r="A30" s="58" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B30" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C30" s="57" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E30" s="58" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="F30" s="57" t="s">
         <v>77</v>
@@ -5881,7 +5880,7 @@
         <v>94</v>
       </c>
       <c r="H30" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I30" s="21" t="s">
         <v>18</v>
@@ -5913,19 +5912,19 @@
     </row>
     <row r="31" spans="1:29" s="160" customFormat="1" ht="25" customHeight="1">
       <c r="A31" s="58" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B31" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="57" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D31" s="30" t="s">
         <v>300</v>
       </c>
       <c r="E31" s="58" t="s">
-        <v>416</v>
+        <v>439</v>
       </c>
       <c r="F31" s="57" t="s">
         <v>77</v>
@@ -5934,7 +5933,7 @@
         <v>94</v>
       </c>
       <c r="H31" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I31" s="21" t="s">
         <v>102</v>
@@ -5966,19 +5965,19 @@
     </row>
     <row r="32" spans="1:29" s="160" customFormat="1" ht="25" customHeight="1">
       <c r="A32" s="58" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B32" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C32" s="57" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D32" s="30" t="s">
         <v>301</v>
       </c>
       <c r="E32" s="58" t="s">
-        <v>416</v>
+        <v>439</v>
       </c>
       <c r="F32" s="57" t="s">
         <v>77</v>
@@ -5987,7 +5986,7 @@
         <v>94</v>
       </c>
       <c r="H32" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I32" s="21" t="s">
         <v>19</v>
@@ -17453,11 +17452,11 @@
     <mergeCell ref="U9:V9"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L15:L394" xr:uid="{8D7FB32C-3427-2549-AEE5-4D4BF06D9402}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K15:K394" xr:uid="{1590E11D-D86A-FC45-B310-31384307009E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K15:K32" xr:uid="{7FE9D7E3-52DC-3241-979B-A7F3B3695906}">
       <formula1>$I$3:$I$7</formula1>
     </dataValidation>
   </dataValidations>
@@ -17472,96 +17471,186 @@
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="30">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3D101648-861B-C44F-9EA1-C1DFE8FE106F}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$E$3:$E$103</xm:f>
           </x14:formula1>
-          <xm:sqref>B15:B394</xm:sqref>
+          <xm:sqref>B33:B394</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C94ACB21-8575-E349-97C4-9188D8686827}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$D$3:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>F15:F394</xm:sqref>
+          <xm:sqref>F33:F394</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7604AA96-D86E-8C49-95DF-A8C3A1F9AA6D}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$K$3:$K$98</xm:f>
           </x14:formula1>
-          <xm:sqref>N15:N394</xm:sqref>
+          <xm:sqref>N33:N394</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0D030033-729E-3940-A2F0-6EDE030A4235}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$A$3:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>K15:K394</xm:sqref>
+          <xm:sqref>K33:K394</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0AB04B6F-DD6D-D24E-8CD7-22596E657E09}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$M$3:$M$102</xm:f>
           </x14:formula1>
-          <xm:sqref>W15:W394</xm:sqref>
+          <xm:sqref>W33:W394</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8F8862D0-5953-E940-A175-C24E85C556BA}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$H$3:$H$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G15:G394</xm:sqref>
+          <xm:sqref>G33:G394</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{049A1BE4-E9DE-0D4B-868D-02E76474AFA5}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$J$3:$J$5</xm:f>
           </x14:formula1>
-          <xm:sqref>Q15:Q394</xm:sqref>
+          <xm:sqref>Q33:Q394</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{08D5E3A7-E133-A54A-8435-B3FB6647D742}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$B$3:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>C15:C394</xm:sqref>
+          <xm:sqref>C33:C394</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BEC08EC3-9F4B-6843-8C63-E99D96F3B80C}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$I$3:$I$7</xm:f>
           </x14:formula1>
-          <xm:sqref>I15:I394</xm:sqref>
+          <xm:sqref>I33:I394</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B9CE73CA-32E5-CD40-909B-B3388F139783}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$M$3:$M$22</xm:f>
           </x14:formula1>
-          <xm:sqref>V15:V394</xm:sqref>
+          <xm:sqref>V33:V394</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AE62419B-1860-B240-A67A-B0DC077CD735}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$N$3:$N$4</xm:f>
           </x14:formula1>
-          <xm:sqref>Z15:Z394</xm:sqref>
+          <xm:sqref>Z33:Z394</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{69271FA2-0E38-394D-9669-1C78E1B7E49C}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$F$3:$F$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G15:G394 J15:K394</xm:sqref>
+          <xm:sqref>J33:K394 G33:G394</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7180FD00-41DF-8643-B71E-0C3BEC5EA22D}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$L$3:$L$54</xm:f>
           </x14:formula1>
-          <xm:sqref>P15:P394</xm:sqref>
+          <xm:sqref>P33:P394</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Make sure the information matches the valid Application tags in the information tab" xr:uid="{420DCC94-8F2C-ED4B-99EB-812BBC021162}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$C$3:$C$24</xm:f>
           </x14:formula1>
-          <xm:sqref>D15:D394</xm:sqref>
+          <xm:sqref>D33:D394</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{88BF134A-5ECF-2B44-AD8A-3C294F943CA6}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$G$3:$G$13</xm:f>
           </x14:formula1>
-          <xm:sqref>K15:K394 H15:H394</xm:sqref>
+          <xm:sqref>K33:K394 H33:H394</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DC0E8F8B-19DD-284B-8DFA-4DD5DA8F319C}">
+          <x14:formula1>
+            <xm:f>'Drop down lists'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>K15:K32 H15:H32</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Make sure the information matches the valid Application tags in the information tab" xr:uid="{F242D620-CE77-4F48-889C-29DE47D9921C}">
+          <x14:formula1>
+            <xm:f>'Drop down lists'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>D15:D32</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{701B2199-DC8C-4942-B6C1-F079E231EC97}">
+          <x14:formula1>
+            <xm:f>'Drop down lists'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>P15:P32</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{893E6DB5-4DDF-3D4C-B318-1C559DF7A5CD}">
+          <x14:formula1>
+            <xm:f>'Drop down lists'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>G15:G32 J15:K32</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{06E7EB5D-BF02-4345-8EBB-6AECB4993566}">
+          <x14:formula1>
+            <xm:f>'Drop down lists'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>Z15:Z32</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E72A0F82-FCC0-F14C-8CF4-354BED123A62}">
+          <x14:formula1>
+            <xm:f>'Drop down lists'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>V15:V32</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D2B3978D-9515-FA42-B277-59C7986824E7}">
+          <x14:formula1>
+            <xm:f>'Drop down lists'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>I15:I32</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BA37CDFB-CDF5-F141-BF35-F39AF04F9E29}">
+          <x14:formula1>
+            <xm:f>'Drop down lists'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C15:C32</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9A2C8140-DB94-5443-92E8-DB7157D6D29E}">
+          <x14:formula1>
+            <xm:f>'Drop down lists'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>Q15:Q32</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{85A67B07-173D-814E-863D-27B3C5367833}">
+          <x14:formula1>
+            <xm:f>'Drop down lists'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>G15:G32</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{32594143-3466-F74B-9803-ACCDEFBF3860}">
+          <x14:formula1>
+            <xm:f>'Drop down lists'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>W15:W32</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9A975591-F47A-8D4B-834F-BD5BD4489C32}">
+          <x14:formula1>
+            <xm:f>'Drop down lists'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>K15:K32</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1D082A5B-7E81-E048-B493-681073D31D5D}">
+          <x14:formula1>
+            <xm:f>'Drop down lists'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>N15:N32</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{630230F0-FC5E-CA41-865C-0D802586AF97}">
+          <x14:formula1>
+            <xm:f>'Drop down lists'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>F15:F32</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{40FD16DF-3B64-1E4A-B716-4444A47F227D}">
+          <x14:formula1>
+            <xm:f>'Drop down lists'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B15:B32</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -17577,7 +17666,7 @@
   <dimension ref="A1:AK103"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -17652,7 +17741,7 @@
         <v>253</v>
       </c>
       <c r="N2" s="55" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O2" s="44"/>
       <c r="P2" s="43"/>
@@ -17683,7 +17772,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>288</v>
@@ -17719,7 +17808,7 @@
         <v>5</v>
       </c>
       <c r="N3" s="31" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
@@ -17770,7 +17859,7 @@
         <v>10</v>
       </c>
       <c r="N4" s="31" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
@@ -17826,7 +17915,7 @@
     <row r="6" spans="1:37">
       <c r="A6" s="32"/>
       <c r="B6" s="38" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>291</v>
@@ -17871,10 +17960,10 @@
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="42" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I7" s="176" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K7" s="175" t="s">
         <v>31</v>
@@ -18044,7 +18133,7 @@
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="176" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H12" s="22"/>
       <c r="I12" s="22"/>
@@ -18079,7 +18168,7 @@
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
@@ -18106,7 +18195,7 @@
       <c r="A14" s="32"/>
       <c r="B14" s="33"/>
       <c r="C14" s="30" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="21" t="s">
@@ -18156,7 +18245,7 @@
         <v>117</v>
       </c>
       <c r="L15" s="172" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M15">
         <v>65</v>
@@ -18174,7 +18263,7 @@
       <c r="A16" s="32"/>
       <c r="B16" s="34"/>
       <c r="C16" s="30" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="21" t="s">
@@ -18207,7 +18296,7 @@
       <c r="A17" s="32"/>
       <c r="B17" s="34"/>
       <c r="C17" s="53" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="21" t="s">
@@ -18273,7 +18362,7 @@
       <c r="A19" s="32"/>
       <c r="B19" s="34"/>
       <c r="C19" s="30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="21" t="s">
@@ -18339,7 +18428,7 @@
       <c r="A21" s="32"/>
       <c r="B21" s="34"/>
       <c r="C21" s="30" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="21" t="s">
@@ -18387,7 +18476,7 @@
         <v>110</v>
       </c>
       <c r="L22" s="172" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M22">
         <v>100</v>
@@ -18450,7 +18539,7 @@
         <v>112</v>
       </c>
       <c r="L24" s="31" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N24" s="22"/>
       <c r="O24" s="22"/>
@@ -18558,7 +18647,7 @@
         <v>131</v>
       </c>
       <c r="L28" s="172" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="N28" s="22"/>
       <c r="O28" s="22"/>
@@ -18725,7 +18814,7 @@
         <v>185</v>
       </c>
       <c r="L34" s="172" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -20483,6 +20572,7 @@
       <c r="U103" s="22"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="AlryAM3vCnGy9MjXjTugKlzYaBLXZjLFYA9egPMQNhCW9Rq5MHQApudHrT0cbI+iO4Nvz6A4Rff9jagAqBw+Hw==" saltValue="r2WjgYLC3iN7hYZov2+P2A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState ref="L3:L44">
     <sortCondition ref="L44"/>
   </sortState>
